--- a/keijiban_V2/画面遷移図_掲示板.xlsx
+++ b/keijiban_V2/画面遷移図_掲示板.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ポリテク\6.13\keijiban_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es118\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA27CB-B2C8-49DE-8898-D84BE3C9C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11430"/>
   </bookViews>
   <sheets>
-    <sheet name="画面遷移図_V2" sheetId="4" r:id="rId1"/>
-    <sheet name="データベース" sheetId="2" r:id="rId2"/>
+    <sheet name="画面キャプチャ" sheetId="5" r:id="rId1"/>
+    <sheet name="画面遷移図_V2" sheetId="4" r:id="rId2"/>
+    <sheet name="データベース" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>pass</t>
     <phoneticPr fontId="1"/>
@@ -390,13 +390,7 @@
     <t>thread_check.php</t>
   </si>
   <si>
-    <t>tikutiku_list.csv</t>
-  </si>
-  <si>
     <t>tsuho_done.php</t>
-  </si>
-  <si>
-    <t>user_logout.php</t>
   </si>
   <si>
     <t>user_syukusei_top.php</t>
@@ -707,7 +701,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,7 +1147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,9 +1283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1346,26 +1337,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,6 +1385,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618362</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>227381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6104762" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180212</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>227381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="0"/>
+          <a:ext cx="6104762" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1652,47 +1730,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD65"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
     <col min="5" max="5" width="4.25" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="2.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="29" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="3.25" customWidth="1"/>
     <col min="14" max="14" width="25.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="29" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="34.08203125" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="34.125" customWidth="1"/>
+    <col min="20" max="20" width="4.375" customWidth="1"/>
     <col min="21" max="21" width="6" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.83203125" customWidth="1"/>
+    <col min="25" max="25" width="3.875" customWidth="1"/>
     <col min="26" max="26" width="7.75" style="29" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.08203125" customWidth="1"/>
-    <col min="29" max="29" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.125" customWidth="1"/>
+    <col min="29" max="29" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="F1" s="30"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1709,123 +1803,123 @@
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="E2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:24" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:24" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="57"/>
-      <c r="C4" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="57"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="56"/>
+      <c r="C4" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="56"/>
       <c r="K4" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T4" s="16"/>
-      <c r="V4" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="55"/>
-      <c r="C5" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="V4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="54"/>
+      <c r="C5" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="54"/>
       <c r="E5" s="10"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="54"/>
       <c r="I5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="63"/>
+        <v>95</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="37"/>
-      <c r="Q5" s="50" t="s">
-        <v>69</v>
+      <c r="Q5" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T5" s="10"/>
-      <c r="V5" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="55"/>
+      <c r="V5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="54"/>
       <c r="C6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="55"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="54"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="63"/>
+      <c r="G6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N6" s="4"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="22"/>
       <c r="S6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="55"/>
-      <c r="C7" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="55"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="54"/>
+      <c r="C7" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="54"/>
       <c r="E7" s="10"/>
-      <c r="G7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="63"/>
+      <c r="G7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" s="37"/>
@@ -1833,16 +1927,16 @@
       <c r="S7" s="4"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="54"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="50" t="s">
-        <v>69</v>
+      <c r="G8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="N8" s="1"/>
       <c r="P8" s="37"/>
@@ -1850,48 +1944,48 @@
       <c r="S8" s="1"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="55"/>
-      <c r="D9" s="55"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="10"/>
-      <c r="G9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="52"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="55"/>
-      <c r="D10" s="55"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="10"/>
-      <c r="G10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="52"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="55"/>
-      <c r="D11" s="55"/>
+    <row r="11" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="10"/>
-      <c r="G11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="52"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="54"/>
       <c r="C12" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="D12" s="58"/>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="13"/>
       <c r="I12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="53" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="21" t="s">
@@ -1899,7 +1993,7 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="36" t="s">
@@ -1910,17 +2004,17 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="55"/>
-      <c r="B13" s="62"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="54"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="15"/>
       <c r="F13" s="42"/>
       <c r="G13" s="32"/>
@@ -1944,10 +2038,10 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
-      <c r="C14" s="51" t="s">
-        <v>104</v>
+      <c r="C14" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -1959,7 +2053,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="37"/>
@@ -1974,9 +2068,9 @@
       <c r="S14" s="4"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="19"/>
@@ -1988,18 +2082,18 @@
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="50" t="s">
-        <v>69</v>
+      <c r="L15" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="N15" s="1"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="50" t="s">
-        <v>69</v>
+      <c r="Q15" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="E16" s="10"/>
       <c r="K16" s="37"/>
       <c r="L16" s="22"/>
@@ -2007,17 +2101,17 @@
       <c r="Q16" s="22"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="3:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E19" s="10"/>
       <c r="F19" s="44"/>
       <c r="G19" s="6"/>
@@ -2031,7 +2125,7 @@
         <v>8</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="36" t="s">
@@ -2045,12 +2139,12 @@
         <v>37</v>
       </c>
       <c r="T19" s="11"/>
-      <c r="U19" s="46"/>
+      <c r="U19" s="45"/>
       <c r="X19" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E20" s="10"/>
       <c r="I20" s="15"/>
       <c r="K20" s="37"/>
@@ -2073,10 +2167,10 @@
       <c r="V20" s="6"/>
       <c r="W20" s="13"/>
       <c r="X20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E21" s="10"/>
       <c r="K21" s="37"/>
       <c r="L21" s="22" t="s">
@@ -2091,63 +2185,63 @@
       <c r="T21" s="12"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="3:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="10"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="50" t="s">
-        <v>69</v>
+      <c r="L22" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="N22" s="1"/>
       <c r="P22" s="37"/>
-      <c r="Q22" s="50" t="s">
-        <v>69</v>
+      <c r="Q22" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="12"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="X23" s="49"/>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="3:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.4">
       <c r="E27" s="10"/>
       <c r="F27" s="44"/>
       <c r="G27" s="6"/>
       <c r="H27" s="13"/>
       <c r="I27" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="35" t="s">
@@ -2155,83 +2249,83 @@
       </c>
       <c r="T27" s="16"/>
       <c r="U27" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W27" s="13"/>
       <c r="X27" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA27" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB27" s="13"/>
       <c r="AC27" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.4">
       <c r="I28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P28" s="39"/>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="47"/>
       <c r="S28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U28" s="40"/>
       <c r="V28" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z28" s="37"/>
       <c r="AA28" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD28" s="9"/>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.4">
       <c r="I29" s="4"/>
       <c r="K29" s="37"/>
       <c r="L29" s="22"/>
       <c r="N29" s="4"/>
       <c r="P29" s="39"/>
-      <c r="Q29" s="47"/>
+      <c r="Q29" s="46"/>
       <c r="S29" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U29" s="40"/>
       <c r="V29" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="12"/>
     </row>
-    <row r="30" spans="3:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I30" s="1"/>
       <c r="K30" s="37"/>
       <c r="L30" s="22"/>
@@ -2240,7 +2334,7 @@
       <c r="S30" s="31"/>
       <c r="U30" s="40"/>
       <c r="V30" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Z30" s="37"/>
@@ -2248,11 +2342,11 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="12"/>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.4">
       <c r="Q31" s="10"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.4">
       <c r="Q32" s="10"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2268,18 +2362,395 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="11"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F47" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C58" s="1"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2292,8 +2763,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G26"/>
   <sheetViews>
@@ -2301,33 +2772,33 @@
       <selection activeCell="D25" sqref="D25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="43.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="43.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.25" customWidth="1"/>
-    <col min="12" max="12" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
@@ -2341,7 +2812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D5" s="26" t="s">
         <v>14</v>
       </c>
@@ -2355,55 +2826,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="66" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="66" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="66" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="67" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
+      <c r="F9" s="64"/>
+      <c r="G9" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C12" s="15" t="s">
         <v>39</v>
       </c>
@@ -2413,7 +2884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C13" s="27"/>
       <c r="D13" s="18" t="s">
         <v>11</v>
@@ -2428,7 +2899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D14" s="26" t="s">
         <v>22</v>
       </c>
@@ -2442,79 +2913,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="66" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="66" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="66" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="66" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="68" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="69" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="66" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C23" s="15" t="s">
         <v>54</v>
       </c>
@@ -2531,7 +3002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D24" s="26" t="s">
         <v>55</v>
       </c>
@@ -2545,21 +3016,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="70" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D25" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D26" s="17" t="s">
         <v>56</v>
       </c>
